--- a/data/DemoData.xlsx
+++ b/data/DemoData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="49">
   <si>
     <t>Type</t>
   </si>
@@ -56,6 +56,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CS75</t>
     </r>
@@ -69,6 +70,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">cs75</t>
     </r>
@@ -82,6 +84,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">H6</t>
     </r>
@@ -95,6 +98,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x80</t>
     </r>
@@ -197,6 +201,12 @@
   </si>
   <si>
     <t>User Percent</t>
+  </si>
+  <si>
+    <t>UV_target</t>
+  </si>
+  <si>
+    <t>UV_channel</t>
   </si>
 </sst>
 </file>
@@ -211,6 +221,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -307,8 +318,8 @@
   </sheetPr>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F1" activeCellId="1" pane="topLeft" sqref="B49:D67 F1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F1" activeCellId="1" pane="topLeft" sqref="J52:L61 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -1901,8 +1912,8 @@
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B49" activeCellId="0" pane="topLeft" sqref="B49:D67"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J52" activeCellId="0" pane="topLeft" sqref="J52:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -3139,6 +3150,15 @@
       <c r="D52" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="J52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="B53" s="1" t="s">
@@ -3150,6 +3170,15 @@
       <c r="D53" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="J53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="B54" s="1" t="s">
@@ -3161,6 +3190,15 @@
       <c r="D54" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="J54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="B55" s="1" t="s">
@@ -3172,6 +3210,15 @@
       <c r="D55" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="J55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="B56" s="1" t="s">
@@ -3183,6 +3230,15 @@
       <c r="D56" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="J56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>500000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="B57" s="1" t="s">
@@ -3194,6 +3250,15 @@
       <c r="D57" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="J57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="B58" s="1" t="s">
@@ -3205,6 +3270,15 @@
       <c r="D58" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="J58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>620000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="B59" s="1" t="s">
@@ -3216,6 +3290,15 @@
       <c r="D59" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="J59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="B60" s="1" t="s">
@@ -3227,6 +3310,15 @@
       <c r="D60" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="B61" s="1" t="s">
@@ -3238,6 +3330,15 @@
       <c r="D61" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="J61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>320000</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>800000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="B62" s="1" t="s">
@@ -3308,7 +3409,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/DemoData.xlsx
+++ b/data/DemoData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="competitive" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="65">
   <si>
     <t>Cluster</t>
   </si>
@@ -183,6 +183,98 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">奔腾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">X80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
     </r>
   </si>
   <si>
@@ -380,7 +472,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
+      <selection activeCell="E1" activeCellId="1" pane="topLeft" sqref="A3:G9 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -472,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K23" activeCellId="0" pane="topLeft" sqref="K23"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K23" activeCellId="1" pane="topLeft" sqref="A3:G9 K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -2106,543 +2198,343 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I74" activeCellId="0" pane="topLeft" sqref="I74"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.1"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">C2*0.01</f>
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">INT(D2*$L$2)</f>
-        <v>23</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <f aca="false">$J$2*K2</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C3*0.01</f>
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">INT(D3*$L$2)</f>
-        <v>15</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <f aca="false">$J$2*K3</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">C4*0.01</f>
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">INT(D4*$L$2)</f>
-        <v>39</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <f aca="false">$J$2*K4</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">C5*0.01</f>
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">INT(D5*$L$2)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">C6*0.01</f>
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">INT(D6*$L$2)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">C7*0.01</f>
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">INT(D7*$L$2)</f>
-        <v>31</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">C8*0.01</f>
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">INT(D8*$L$2)</f>
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">C9*0.01</f>
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">INT(D9*$L$2)</f>
-        <v>15</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">C10*0.01</f>
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">INT(D10*$L$2)</f>
-        <v>31</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">C11*0.01</f>
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">INT(D11*L$3)</f>
-        <v>11</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">C12*0.01</f>
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">INT(D12*L$3)</f>
-        <v>19</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">C13*0.01</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E13" s="0" t="n">
-        <f aca="false">INT(D13*L$3)</f>
-        <v>7</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>40</v>
+        <f aca="false">INT(D13*$L$13)</f>
+        <v>23</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">$J$13*K13</f>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">C14*0.01</f>
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">INT(D14*$L$13)</f>
+        <v>15</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">INT(D14*L$3)</f>
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>40</v>
+      <c r="L14" s="0" t="n">
+        <f aca="false">$J$13*K14</f>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">C15*0.01</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <f aca="false">INT(D15*L$3)</f>
-        <v>7</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="0" t="n">
+        <f aca="false">INT(D15*$L$13)</f>
         <v>39</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>40</v>
+      <c r="K15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">$J$13*K15</f>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">C16*0.01</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <f aca="false">INT(D16*L$3)</f>
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>20</v>
+        <f aca="false">INT(D16*$L$13)</f>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">C17*0.01</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="0" t="n">
-        <f aca="false">INT(D17*L$3)</f>
-        <v>11</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>30</v>
+        <f aca="false">INT(D17*$L$13)</f>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">C18*0.01</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E18" s="0" t="n">
-        <f aca="false">INT(D18*L$3)</f>
-        <v>11</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>30</v>
+        <f aca="false">INT(D18*$L$13)</f>
+        <v>31</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>40</v>
@@ -2652,71 +2544,53 @@
         <v>0.4</v>
       </c>
       <c r="E19" s="0" t="n">
-        <f aca="false">INT(D19*L$3)</f>
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>14</v>
+        <f aca="false">INT(D19*$L$13)</f>
+        <v>31</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">C20*0.01</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <f aca="false">INT(D20*L$4)</f>
-        <v>3</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="1" t="s">
+        <f aca="false">INT(D20*$L$13)</f>
+        <v>15</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="N20" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>40</v>
@@ -2726,34 +2600,25 @@
         <v>0.4</v>
       </c>
       <c r="E21" s="0" t="n">
-        <f aca="false">INT(D21*L$4)</f>
-        <v>5</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>9</v>
+        <f aca="false">INT(D21*$L$13)</f>
+        <v>31</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>30</v>
@@ -2763,23 +2628,14 @@
         <v>0.3</v>
       </c>
       <c r="E22" s="0" t="n">
-        <f aca="false">INT(D22*L$4)</f>
-        <v>3</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>27</v>
+        <f aca="false">INT(D22*L$14)</f>
+        <v>11</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>30</v>
@@ -2787,818 +2643,1217 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">C23*0.01</f>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <f aca="false">INT(D23*L$4)</f>
-        <v>5</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>11</v>
+        <f aca="false">INT(D23*L$14)</f>
+        <v>19</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">C24*0.01</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <f aca="false">INT(D24*L$4)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="1" t="s">
+        <f aca="false">INT(D24*L$14)</f>
+        <v>7</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="0" t="n">
         <v>40</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">C25*0.01</f>
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="E25" s="0" t="n">
-        <f aca="false">INT(D25*L$4)</f>
-        <v>7</v>
+        <f aca="false">INT(D25*L$14)</f>
+        <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>31</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">C26*0.01</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <f aca="false">INT(D26*L$4)</f>
-        <v>5</v>
+        <f aca="false">INT(D26*L$14)</f>
+        <v>7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">C27*0.01</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <f aca="false">INT(D27*L$4)</f>
-        <v>5</v>
+        <f aca="false">INT(D27*L$14)</f>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">C28*0.01</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E28" s="0" t="n">
-        <f aca="false">INT(D28*L$4)</f>
-        <v>2</v>
+        <f aca="false">INT(D28*L$14)</f>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">C29*0.01</f>
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">INT(D29*L$14)</f>
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="H29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">C30*0.01</f>
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">INT(D30*L$14)</f>
+        <v>15</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J30" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">C31*0.01</f>
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">INT(D31*L$15)</f>
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">C32*0.01</f>
+        <v>0.4</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">INT(D32*L$15)</f>
         <v>5</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">C33*0.01</f>
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">INT(D33*L$15)</f>
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">C34*0.01</f>
+        <v>0.45</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">INT(D34*L$15)</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">C35*0.01</f>
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">INT(D35*L$15)</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">C36*0.01</f>
+        <v>0.55</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">INT(D36*L$15)</f>
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N30" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="H31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="J36" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="M36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="C37" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">C37*0.01</f>
+        <v>0.4</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">INT(D37*L$15)</f>
+        <v>5</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="0" t="n">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="H32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">C38*0.01</f>
+        <v>0.4</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">INT(D38*L$15)</f>
+        <v>5</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J38" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">C39*0.01</f>
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">INT(D39*L$15)</f>
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="H40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="H41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="H42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="H43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="H44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="H45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="H46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="B47" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N32" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
-      <c r="H33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="H34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="H35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="B36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="0" t="n">
+      <c r="J49" s="0" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="B41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
-      <c r="B42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="B43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="B44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="B45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="G47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="G48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="B49" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="B50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="B51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="B52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="L52" s="0" t="s">
-        <v>57</v>
+      <c r="C52" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="B53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>100000</v>
+        <v>57</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="B54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="L54" s="0" t="n">
-        <v>150000</v>
+        <v>58</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="B55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>40000</v>
-      </c>
-      <c r="L55" s="0" t="n">
-        <v>200000</v>
+        <v>59</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="B56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+      <c r="G58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="L56" s="0" t="n">
-        <v>500000</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
-      <c r="B57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="0" t="n">
+      <c r="J58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="L58" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+      <c r="G59" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L59" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="K57" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <v>450000</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
-      <c r="B58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>300000</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>620000</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
-      <c r="B59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>40000</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>60000</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
-      <c r="B60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>80000</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>100000</v>
+      <c r="B60" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="B61" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>320000</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>800000</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="B62" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="B64" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>150000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>200000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+      <c r="B68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>450000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+      <c r="B69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>620000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+      <c r="B70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+      <c r="B71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+      <c r="B72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>320000</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>800000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+      <c r="B73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+      <c r="B74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+      <c r="B75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+      <c r="B76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D76" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+      <c r="B77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+      <c r="B78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="0" t="n">
         <v>3</v>
       </c>
     </row>
